--- a/APM files/133353681/133353681 IMPORT 2 Compensation Update.xlsx
+++ b/APM files/133353681/133353681 IMPORT 2 Compensation Update.xlsx
@@ -1,37 +1,415 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/133353681/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9D825F-6C75-404A-9C82-4619C9B3598A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="9560" yWindow="5860" windowWidth="26400" windowHeight="17860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="118">
+  <si>
+    <t>Action Type</t>
+  </si>
+  <si>
+    <t>Hotel ID</t>
+  </si>
+  <si>
+    <t>Hotel Business Model</t>
+  </si>
+  <si>
+    <t>Compensation Rule Name</t>
+  </si>
+  <si>
+    <t>Compensation Rule ID</t>
+  </si>
+  <si>
+    <t>Default or Exception</t>
+  </si>
+  <si>
+    <t>Compensation Percent</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>3959987</t>
+  </si>
+  <si>
+    <t>Dual</t>
+  </si>
+  <si>
+    <t>2022_HC_18</t>
+  </si>
+  <si>
+    <t>200096012</t>
+  </si>
+  <si>
+    <t>Default</t>
+  </si>
+  <si>
+    <t>2022_EC_18</t>
+  </si>
+  <si>
+    <t>200096011</t>
+  </si>
+  <si>
+    <t>23% Margin Pricing</t>
+  </si>
+  <si>
+    <t>200005124</t>
+  </si>
+  <si>
+    <t>33354878</t>
+  </si>
+  <si>
+    <t>2021_EC_18</t>
+  </si>
+  <si>
+    <t>610026919</t>
+  </si>
+  <si>
+    <t>MerchantPackage</t>
+  </si>
+  <si>
+    <t>330008078</t>
+  </si>
+  <si>
+    <t>Merchant</t>
+  </si>
+  <si>
+    <t>330008077</t>
+  </si>
+  <si>
+    <t>2021_HC_18</t>
+  </si>
+  <si>
+    <t>330008076</t>
+  </si>
+  <si>
+    <t>17606292</t>
+  </si>
+  <si>
+    <t>570015330</t>
+  </si>
+  <si>
+    <t>570015328</t>
+  </si>
+  <si>
+    <t>200961690</t>
+  </si>
+  <si>
+    <t>200961689</t>
+  </si>
+  <si>
+    <t>Agency</t>
+  </si>
+  <si>
+    <t>200961688</t>
+  </si>
+  <si>
+    <t>72063805</t>
+  </si>
+  <si>
+    <t>610112949</t>
+  </si>
+  <si>
+    <t>27053563</t>
+  </si>
+  <si>
+    <t>550018748</t>
+  </si>
+  <si>
+    <t>550018747</t>
+  </si>
+  <si>
+    <t>550018746</t>
+  </si>
+  <si>
+    <t>18803015</t>
+  </si>
+  <si>
+    <t>201037315</t>
+  </si>
+  <si>
+    <t>201037314</t>
+  </si>
+  <si>
+    <t>201037313</t>
+  </si>
+  <si>
+    <t>103154960</t>
+  </si>
+  <si>
+    <t>610864848</t>
+  </si>
+  <si>
+    <t>610864847</t>
+  </si>
+  <si>
+    <t>102677779</t>
+  </si>
+  <si>
+    <t>610839957</t>
+  </si>
+  <si>
+    <t>610839956</t>
+  </si>
+  <si>
+    <t>79777941</t>
+  </si>
+  <si>
+    <t>610232704</t>
+  </si>
+  <si>
+    <t>610232703</t>
+  </si>
+  <si>
+    <t>24940970</t>
+  </si>
+  <si>
+    <t>600015181</t>
+  </si>
+  <si>
+    <t>600015180</t>
+  </si>
+  <si>
+    <t>600015179</t>
+  </si>
+  <si>
+    <t>105800074</t>
+  </si>
+  <si>
+    <t>610941236</t>
+  </si>
+  <si>
+    <t>92387521</t>
+  </si>
+  <si>
+    <t>610471209</t>
+  </si>
+  <si>
+    <t>610471208</t>
+  </si>
+  <si>
+    <t>103936242</t>
+  </si>
+  <si>
+    <t>610884250</t>
+  </si>
+  <si>
+    <t>20246395</t>
+  </si>
+  <si>
+    <t>530010275</t>
+  </si>
+  <si>
+    <t>530010274</t>
+  </si>
+  <si>
+    <t>201186380</t>
+  </si>
+  <si>
+    <t>74147615</t>
+  </si>
+  <si>
+    <t>610137354</t>
+  </si>
+  <si>
+    <t>69220415</t>
+  </si>
+  <si>
+    <t>610061220</t>
+  </si>
+  <si>
+    <t>610061219</t>
+  </si>
+  <si>
+    <t>72538568</t>
+  </si>
+  <si>
+    <t>610117538</t>
+  </si>
+  <si>
+    <t>610117537</t>
+  </si>
+  <si>
+    <t>93701007</t>
+  </si>
+  <si>
+    <t>610526738</t>
+  </si>
+  <si>
+    <t>610526737</t>
+  </si>
+  <si>
+    <t>108812001</t>
+  </si>
+  <si>
+    <t>611032431</t>
+  </si>
+  <si>
+    <t>611032430</t>
+  </si>
+  <si>
+    <t>72988060</t>
+  </si>
+  <si>
+    <t>610121415</t>
+  </si>
+  <si>
+    <t>610121414</t>
+  </si>
+  <si>
+    <t>16885074</t>
+  </si>
+  <si>
+    <t>610026910</t>
+  </si>
+  <si>
+    <t>530010279</t>
+  </si>
+  <si>
+    <t>16885074_D_S_M_00</t>
+  </si>
+  <si>
+    <t>530010278</t>
+  </si>
+  <si>
+    <t>MerchantPackage_A_111717_00</t>
+  </si>
+  <si>
+    <t>201223504</t>
+  </si>
+  <si>
+    <t>200904050</t>
+  </si>
+  <si>
+    <t>200904049</t>
+  </si>
+  <si>
+    <t>200904048</t>
+  </si>
+  <si>
+    <t>16884194</t>
+  </si>
+  <si>
+    <t>560015566</t>
+  </si>
+  <si>
+    <t>560015565</t>
+  </si>
+  <si>
+    <t>200902843</t>
+  </si>
+  <si>
+    <t>200902842</t>
+  </si>
+  <si>
+    <t>200902841</t>
+  </si>
+  <si>
+    <t>27543907</t>
+  </si>
+  <si>
+    <t>360010699</t>
+  </si>
+  <si>
+    <t>360010698</t>
+  </si>
+  <si>
+    <t>360010697</t>
+  </si>
+  <si>
+    <t>31484833</t>
+  </si>
+  <si>
+    <t>440019166</t>
+  </si>
+  <si>
+    <t>440019165</t>
+  </si>
+  <si>
+    <t>440019164</t>
+  </si>
+  <si>
+    <t>92438356</t>
+  </si>
+  <si>
+    <t>610472833</t>
+  </si>
+  <si>
+    <t>23523673</t>
+  </si>
+  <si>
+    <t>560011763</t>
+  </si>
+  <si>
+    <t>560011762</t>
+  </si>
+  <si>
+    <t>560011761</t>
+  </si>
+  <si>
+    <t>17606820</t>
+  </si>
+  <si>
+    <t>200957654</t>
+  </si>
+  <si>
+    <t>200957653</t>
+  </si>
+  <si>
+    <t>200957652</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +424,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,70 +748,1679 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Action Type</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Hotel ID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Hotel Business Model</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Compensation Rule Name</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Compensation Rule ID</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Default or Exception</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Compensation Percent</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Update</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>123</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
+      </c>
+      <c r="F31" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+      <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>65</v>
+      </c>
+      <c r="F35" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" t="s">
+        <v>71</v>
+      </c>
+      <c r="F39" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" t="s">
+        <v>76</v>
+      </c>
+      <c r="F42" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" t="s">
+        <v>77</v>
+      </c>
+      <c r="F43" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B44" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" t="s">
+        <v>79</v>
+      </c>
+      <c r="F44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>78</v>
+      </c>
+      <c r="C45" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" t="s">
+        <v>80</v>
+      </c>
+      <c r="F45" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>7</v>
+      </c>
+      <c r="B46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" t="s">
+        <v>22</v>
+      </c>
+      <c r="E46" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>31</v>
+      </c>
+      <c r="E47" t="s">
+        <v>83</v>
+      </c>
+      <c r="F47" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" t="s">
+        <v>84</v>
+      </c>
+      <c r="C48" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" t="s">
+        <v>85</v>
+      </c>
+      <c r="F48" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>7</v>
+      </c>
+      <c r="B49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" t="s">
+        <v>24</v>
+      </c>
+      <c r="E49" t="s">
+        <v>86</v>
+      </c>
+      <c r="F49" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>7</v>
+      </c>
+      <c r="B50" t="s">
+        <v>84</v>
+      </c>
+      <c r="C50" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B51" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" t="s">
+        <v>89</v>
+      </c>
+      <c r="E51" t="s">
+        <v>90</v>
+      </c>
+      <c r="F51" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52" t="s">
+        <v>91</v>
+      </c>
+      <c r="F52" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>7</v>
+      </c>
+      <c r="B53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" t="s">
+        <v>92</v>
+      </c>
+      <c r="F53" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C54" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" t="s">
+        <v>93</v>
+      </c>
+      <c r="F54" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>7</v>
+      </c>
+      <c r="B55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C55" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" t="s">
+        <v>95</v>
+      </c>
+      <c r="F55" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" t="s">
+        <v>94</v>
+      </c>
+      <c r="C56" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" t="s">
+        <v>96</v>
+      </c>
+      <c r="F56" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>94</v>
+      </c>
+      <c r="C57" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57" t="s">
+        <v>97</v>
+      </c>
+      <c r="F57" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>7</v>
+      </c>
+      <c r="B58" t="s">
+        <v>94</v>
+      </c>
+      <c r="C58" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" t="s">
+        <v>98</v>
+      </c>
+      <c r="F58" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>7</v>
+      </c>
+      <c r="B59" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" t="s">
+        <v>99</v>
+      </c>
+      <c r="F59" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>7</v>
+      </c>
+      <c r="B60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C60" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" t="s">
+        <v>20</v>
+      </c>
+      <c r="E60" t="s">
+        <v>101</v>
+      </c>
+      <c r="F60" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>7</v>
+      </c>
+      <c r="B61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C61" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" t="s">
+        <v>102</v>
+      </c>
+      <c r="F61" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" t="s">
+        <v>100</v>
+      </c>
+      <c r="C62" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" t="s">
+        <v>103</v>
+      </c>
+      <c r="F62" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>104</v>
+      </c>
+      <c r="C63" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" t="s">
+        <v>20</v>
+      </c>
+      <c r="E63" t="s">
+        <v>105</v>
+      </c>
+      <c r="F63" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>104</v>
+      </c>
+      <c r="C64" t="s">
+        <v>9</v>
+      </c>
+      <c r="D64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" t="s">
+        <v>106</v>
+      </c>
+      <c r="F64" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>104</v>
+      </c>
+      <c r="C65" t="s">
+        <v>9</v>
+      </c>
+      <c r="D65" t="s">
+        <v>24</v>
+      </c>
+      <c r="E65" t="s">
+        <v>107</v>
+      </c>
+      <c r="F65" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>7</v>
+      </c>
+      <c r="B66" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" t="s">
+        <v>109</v>
+      </c>
+      <c r="F66" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>7</v>
+      </c>
+      <c r="B67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C67" t="s">
+        <v>9</v>
+      </c>
+      <c r="D67" t="s">
+        <v>20</v>
+      </c>
+      <c r="E67" t="s">
+        <v>111</v>
+      </c>
+      <c r="F67" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>7</v>
+      </c>
+      <c r="B68" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" t="s">
+        <v>112</v>
+      </c>
+      <c r="F68" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>7</v>
+      </c>
+      <c r="B69" t="s">
+        <v>110</v>
+      </c>
+      <c r="C69" t="s">
+        <v>9</v>
+      </c>
+      <c r="D69" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" t="s">
+        <v>113</v>
+      </c>
+      <c r="F69" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" t="s">
+        <v>20</v>
+      </c>
+      <c r="E70" t="s">
+        <v>115</v>
+      </c>
+      <c r="F70" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>7</v>
+      </c>
+      <c r="B71" t="s">
+        <v>114</v>
+      </c>
+      <c r="C71" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" t="s">
+        <v>116</v>
+      </c>
+      <c r="F71" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71">
+        <v>0.16500000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>7</v>
+      </c>
+      <c r="B72" t="s">
+        <v>114</v>
+      </c>
+      <c r="C72" t="s">
+        <v>9</v>
+      </c>
+      <c r="D72" t="s">
+        <v>24</v>
+      </c>
+      <c r="E72" t="s">
+        <v>117</v>
+      </c>
+      <c r="F72" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72">
+        <v>0.16500000000000001</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
